--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.04478921852466667</v>
+        <v>0.01420334438766667</v>
       </c>
       <c r="R2">
-        <v>0.403102966722</v>
+        <v>0.127830099489</v>
       </c>
       <c r="S2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="T2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.05164825133033333</v>
+        <v>0.01852505641166667</v>
       </c>
       <c r="R3">
-        <v>0.464834261973</v>
+        <v>0.166725507705</v>
       </c>
       <c r="S3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="T3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
     </row>
   </sheetData>
